--- a/biology/Zoologie/Ischnocnema_henselii/Ischnocnema_henselii.xlsx
+++ b/biology/Zoologie/Ischnocnema_henselii/Ischnocnema_henselii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ischnocnema henselii est une espèce d'amphibiens de la famille des Brachycephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ischnocnema henselii est une espèce d'amphibiens de la famille des Brachycephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 200 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 1 200 m d'altitude :
 au Brésil dans les États du Rio Grande do Sul et de Santa Catarina ;
 en Argentine dans la province de Misiones.
 Sa présence au Paraguay est incertaine.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 23 mm et les femelles jusqu'à 34,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 23 mm et les femelles jusqu'à 34,5 mm.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Reinhold Friedrich Hensel.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1870 : Über neue Amphibien (Hemidactylus, Urosaura, Tropidolepisma, Geophis, Uriechis, Scaphiophis, Hoplocephalus, Rana, Entomoglossus, Cystignathus, Hylodes, Arthroleptis, Phyllobates, Cophomantis) des königlichen zoologischen Museums. Monatsberichte der Koniglich Preussischen Akademie Wissenschaften zu Berlin, vol. 1870, p. 641–652 (texte intégral).</t>
         </is>
